--- a/Outputs/3. Prosumer percentage/Summary.xlsx
+++ b/Outputs/3. Prosumer percentage/Summary.xlsx
@@ -12,6 +12,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.5" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.75" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,126 +445,6 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -569,127 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.4</v>
+        <v>0.3825</v>
       </c>
     </row>
     <row r="3">
@@ -701,120 +465,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -823,121 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2904358.09903137</v>
+        <v>2891961.907738124</v>
       </c>
     </row>
     <row r="5">
@@ -947,121 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>2904358.09903137</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2904358.09903137</v>
+        <v>2891961.907738124</v>
       </c>
     </row>
   </sheetData>
@@ -3378,9 +2800,6 @@
       <c r="AM3" t="n">
         <v>0.1873599403218115</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3502,9 +2921,6 @@
       <c r="AM4" t="n">
         <v>1192870.454836785</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3626,9 +3042,2572 @@
       <c r="AM5" t="n">
         <v>1196077.857369561</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AP5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in Tariffs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.08203125</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.173858642578125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Base NPV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2756962.499472997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2756962.499472997</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2760591.945839705</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2763505.587869003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AP5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in Tariffs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.00390625</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.02146720886230469</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03895099554210901</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.05829205513418856</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.07753867595872865</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.09669131914252393</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.1195622684444232</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1498781882222011</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1724374957130867</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2247674518263844</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Base NPV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2249502.207420732</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2249502.207420732</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2260057.594902752</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2259486.855794414</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2260825.039854765</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2250776.076300807</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2250796.722163619</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2265877.498869967</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2268281.172886237</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2249533.345841811</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2281402.215182977</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2255675.557895965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AP5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in Tariffs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.00390625</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.01171112060546875</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.0292377807199955</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.03699317567952676</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.05344120204999747</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.06114932470224357</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.07845872708392318</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.09473465521858465</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1118964658157686</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.1308813463537776</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1535519634649859</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1836023387504157</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Base NPV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1904913.076423798</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1904913.076423798</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1935318.300217295</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1976689.453145833</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1914315.056609233</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1956214.186209982</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1912846.358786767</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1964738.321637385</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1922257.093700976</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1906866.19039443</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1907465.361383011</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1919851.531671124</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1924141.171581736</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1913845.159114697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AP5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in Tariffs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.00390625</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.01171112060546875</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0292377807199955</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.03699317567952676</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.05247367108702861</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.06018368344818675</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.07557359093471727</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.0832384862649229</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.09949457653188978</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1071127511871009</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.129922637410614</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1525988719570362</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1901711485980808</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Base NPV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1373448.933208305</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1373448.933208305</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1408093.657846842</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1441755.954310418</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1381359.944855778</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1417960.088357116</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1379784.04561519</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1416857.284047382</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1379635.796704267</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1419263.591052111</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1377286.93353702</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1422728.94428045</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1389634.018953554</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1392423.314379347</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1381269.870263135</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/3. Prosumer percentage/Summary.xlsx
+++ b/Outputs/3. Prosumer percentage/Summary.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,126 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -453,7 +573,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3825</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -465,6 +705,120 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -475,6 +829,120 @@
       <c r="B4" t="n">
         <v>2891961.907738124</v>
       </c>
+      <c r="C4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2891961.907738124</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -483,6 +951,120 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2891961.907738124</v>
+      </c>
+      <c r="AN5" t="n">
         <v>2891961.907738124</v>
       </c>
     </row>
@@ -866,22 +1448,22 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01953125</v>
+        <v>0.03125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.05451583862304688</v>
+        <v>0.0641937255859375</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.089192945510149</v>
+        <v>0.09878577291965485</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1273844206516515</v>
+        <v>0.1330737885873532</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1652029321687252</v>
+        <v>0.1708367398706798</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.202652122284265</v>
+        <v>0.2194491640715403</v>
       </c>
     </row>
     <row r="4">
@@ -891,121 +1473,121 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="C4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="D4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="E4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="F4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="G4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="H4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="I4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="J4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="K4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="L4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="M4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="N4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="O4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="P4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="Q4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="R4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="S4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="T4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="U4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="V4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="W4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="X4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="Y4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="Z4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AA4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AB4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AC4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AD4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AE4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AF4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AG4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AH4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AI4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AK4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AL4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AM4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AN4" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
     </row>
     <row r="5">
@@ -1015,121 +1597,121 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="C5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="D5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="E5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="F5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="G5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="H5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="I5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="J5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="K5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="L5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="M5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="N5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="O5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="P5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="Q5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="R5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="S5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="T5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="U5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="V5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="W5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="X5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="Y5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="Z5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AA5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AB5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AC5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AD5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AE5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AF5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AG5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AH5" t="n">
-        <v>2507382.002861322</v>
+        <v>2491799.416823825</v>
       </c>
       <c r="AI5" t="n">
-        <v>2521941.433164611</v>
+        <v>2492614.556877968</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2520857.364399158</v>
+        <v>2498432.369910951</v>
       </c>
       <c r="AK5" t="n">
-        <v>2523130.055716044</v>
+        <v>2500285.664557591</v>
       </c>
       <c r="AL5" t="n">
-        <v>2509569.271580356</v>
+        <v>2504765.104449934</v>
       </c>
       <c r="AM5" t="n">
-        <v>2508986.401215358</v>
+        <v>2503893.380489108</v>
       </c>
       <c r="AN5" t="n">
-        <v>2527977.547283268</v>
+        <v>2496385.237424845</v>
       </c>
     </row>
   </sheetData>
@@ -1494,37 +2076,37 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00390625</v>
+        <v>0.0078125</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.01171112060546875</v>
+        <v>0.0156097412109375</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0292377807199955</v>
+        <v>0.03506477177143097</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.04474857063905802</v>
+        <v>0.05055280000669882</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.05247367108702861</v>
+        <v>0.05826656406918573</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.07174870198992397</v>
+        <v>0.07751330936181666</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.08901152507688231</v>
+        <v>0.09475079970153524</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1081081484895929</v>
+        <v>0.1138193993123676</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.127111526670796</v>
+        <v>0.1365899887695217</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1498042325692093</v>
+        <v>0.168659310151806</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.183643843806394</v>
+        <v>0.2135578338609645</v>
       </c>
     </row>
     <row r="4">
@@ -1534,118 +2116,118 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="C4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="D4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="E4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="F4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="G4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="H4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="I4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="J4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="K4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="L4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="M4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="N4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="O4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="P4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="Q4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="R4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="S4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="T4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="U4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="V4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="W4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="X4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="Y4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="Z4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AA4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AB4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AC4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AD4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AE4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AF4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AG4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AH4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AI4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AK4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AL4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AM4" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
     </row>
     <row r="5">
@@ -1655,118 +2237,118 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="C5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="D5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="E5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="F5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="G5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="H5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="I5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="J5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="K5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="L5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="M5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="N5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="O5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="P5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="Q5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="R5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="S5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="T5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="U5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="V5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="W5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="X5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="Y5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="Z5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AA5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AB5" t="n">
-        <v>2077696.11430447</v>
+        <v>2053877.463118202</v>
       </c>
       <c r="AC5" t="n">
-        <v>2078115.863150727</v>
+        <v>2065954.656724722</v>
       </c>
       <c r="AD5" t="n">
-        <v>2130193.953139471</v>
+        <v>2123729.552870512</v>
       </c>
       <c r="AE5" t="n">
-        <v>2092954.763059865</v>
+        <v>2074248.52815189</v>
       </c>
       <c r="AF5" t="n">
-        <v>2079165.05425358</v>
+        <v>2061501.506595265</v>
       </c>
       <c r="AG5" t="n">
-        <v>2141710.51395704</v>
+        <v>2120808.593818781</v>
       </c>
       <c r="AH5" t="n">
-        <v>2101487.228628304</v>
+        <v>2074117.643284379</v>
       </c>
       <c r="AI5" t="n">
-        <v>2084086.576694836</v>
+        <v>2067491.379248673</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2081113.386810709</v>
+        <v>2074970.47476878</v>
       </c>
       <c r="AK5" t="n">
-        <v>2094967.801353257</v>
+        <v>2076107.632663595</v>
       </c>
       <c r="AL5" t="n">
-        <v>2106543.031488132</v>
+        <v>2059229.629152485</v>
       </c>
       <c r="AM5" t="n">
-        <v>2079045.913195742</v>
+        <v>2061534.299149201</v>
       </c>
     </row>
   </sheetData>
@@ -2122,46 +2704,43 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.0009765625</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00390625</v>
+        <v>0.008787155151367188</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01171112060546875</v>
+        <v>0.01658249273896217</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02729037404060364</v>
+        <v>0.03408774545641791</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03504957252880558</v>
+        <v>0.04183366782857334</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05053766013611494</v>
+        <v>0.05729525506361798</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05825145376866159</v>
+        <v>0.06499585026857185</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07364890902737775</v>
+        <v>0.08132765460095326</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.08131756350193366</v>
+        <v>0.08898131152556077</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.09853833592795054</v>
+        <v>0.1061684053713957</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1061583782405913</v>
+        <v>0.1289838248711727</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1289738564930878</v>
+        <v>0.1592261387393666</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1516556503026986</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.1854789893137101</v>
+        <v>0.2117367188737894</v>
       </c>
     </row>
     <row r="4">
@@ -2171,118 +2750,115 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="C4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="D4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="E4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="F4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="G4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="H4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="I4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="J4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="K4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="L4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="M4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="N4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="O4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="P4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="Q4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="R4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="S4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="T4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="U4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="V4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="W4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="X4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="Y4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="Z4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AA4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AB4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AC4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AD4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AE4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AF4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AG4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AH4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AI4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AK4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="AL4" t="n">
-        <v>1640982.468935381</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
     </row>
     <row r="5">
@@ -2292,118 +2868,115 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="C5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="D5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="E5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="F5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="G5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="H5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="I5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="J5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="K5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="L5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="M5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="N5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="O5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="P5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="R5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="S5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="T5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="U5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="V5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="W5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="X5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640982.468935381</v>
+        <v>1611371.492515084</v>
       </c>
       <c r="Z5" t="n">
-        <v>1640982.468935381</v>
+        <v>1618336.521382521</v>
       </c>
       <c r="AA5" t="n">
-        <v>1656892.624498782</v>
+        <v>1654901.755218264</v>
       </c>
       <c r="AB5" t="n">
-        <v>1692766.060783934</v>
+        <v>1692963.072790036</v>
       </c>
       <c r="AC5" t="n">
-        <v>1646531.575503336</v>
+        <v>1621350.665636264</v>
       </c>
       <c r="AD5" t="n">
-        <v>1686931.102336426</v>
+        <v>1660985.802084349</v>
       </c>
       <c r="AE5" t="n">
-        <v>1645613.767065265</v>
+        <v>1620226.201777922</v>
       </c>
       <c r="AF5" t="n">
-        <v>1686665.719407452</v>
+        <v>1663951.46150294</v>
       </c>
       <c r="AG5" t="n">
-        <v>1647651.106349375</v>
+        <v>1613929.144068708</v>
       </c>
       <c r="AH5" t="n">
-        <v>1692787.228703568</v>
+        <v>1659706.962738737</v>
       </c>
       <c r="AI5" t="n">
-        <v>1647024.343921077</v>
+        <v>1620579.32771406</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1699961.41246024</v>
+        <v>1620495.464340712</v>
       </c>
       <c r="AK5" t="n">
-        <v>1666366.72723228</v>
+        <v>1615798.747148704</v>
       </c>
       <c r="AL5" t="n">
-        <v>1672936.854873185</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1646763.411160226</v>
+        <v>1614906.326239357</v>
       </c>
     </row>
   </sheetData>
@@ -2759,47 +3332,48 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00390625</v>
+        <v>0.01171112060546875</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01171112060546875</v>
+        <v>0.02729037404060364</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0292377807199955</v>
+        <v>0.03504957252880558</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03699317567952676</v>
+        <v>0.04279361633246026</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05247367108702861</v>
+        <v>0.06018368344818675</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06018368344818675</v>
+        <v>0.06787863719145201</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.06787863719145201</v>
+        <v>0.08419847683201481</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.08707844853329061</v>
+        <v>0.09184652668195228</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.09472087343849903</v>
+        <v>0.1090210292502445</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1118827446001462</v>
+        <v>0.1318197341569813</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1308676921362784</v>
+        <v>0.1695949320656046</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1497599397332692</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.1873599403218115</v>
-      </c>
+        <v>0.3042576102351731</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2808,119 +3382,120 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="C4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="D4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="E4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="F4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="G4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="H4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="I4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="J4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="K4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="L4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="M4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="N4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="O4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="P4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="Q4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="R4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="S4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="T4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="U4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="V4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="W4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="X4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="Y4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="Z4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AA4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AB4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AC4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AD4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AE4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AF4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AG4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AH4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AI4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AK4" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="AL4" t="n">
-        <v>1192870.454836785</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1192870.454836785</v>
-      </c>
+        <v>1161943.262425547</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2929,119 +3504,120 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="C5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="D5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="E5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="F5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="G5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="H5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="I5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="J5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="K5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="L5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="M5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="N5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="O5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="P5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="Q5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="R5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="S5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="T5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="U5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="V5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="W5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="X5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192870.454836785</v>
+        <v>1161943.262425547</v>
       </c>
       <c r="Z5" t="n">
-        <v>1192870.454836785</v>
+        <v>1180732.896568059</v>
       </c>
       <c r="AA5" t="n">
-        <v>1226921.104443427</v>
+        <v>1211599.199996919</v>
       </c>
       <c r="AB5" t="n">
-        <v>1258136.344422536</v>
+        <v>1168734.250288098</v>
       </c>
       <c r="AC5" t="n">
-        <v>1201630.202448472</v>
+        <v>1202202.649009935</v>
       </c>
       <c r="AD5" t="n">
-        <v>1233623.900715857</v>
+        <v>1235818.976080584</v>
       </c>
       <c r="AE5" t="n">
-        <v>1195907.846727486</v>
+        <v>1175278.259057899</v>
       </c>
       <c r="AF5" t="n">
-        <v>1228315.633069527</v>
+        <v>1211755.372565523</v>
       </c>
       <c r="AG5" t="n">
-        <v>1260859.314195768</v>
+        <v>1165836.17796405</v>
       </c>
       <c r="AH5" t="n">
-        <v>1196324.404491065</v>
+        <v>1208288.079477397</v>
       </c>
       <c r="AI5" t="n">
-        <v>1235402.263564684</v>
+        <v>1170633.03296307</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1197124.592748347</v>
+        <v>1163056.796984501</v>
       </c>
       <c r="AK5" t="n">
-        <v>1193739.542797504</v>
+        <v>1165420.160344145</v>
       </c>
       <c r="AL5" t="n">
-        <v>1207894.079270498</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1196077.857369561</v>
-      </c>
+        <v>1168294.751800627</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3435,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.08203125</v>
+        <v>0.0859375</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.173858642578125</v>
+        <v>0.1814956665039062</v>
       </c>
     </row>
     <row r="4">
@@ -3448,121 +4024,121 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="C4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="D4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="E4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="F4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="G4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="H4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="I4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="J4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="K4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="L4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="M4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="N4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="O4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="P4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="Q4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="R4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="S4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="T4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="U4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="V4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="W4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="X4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="Y4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="Z4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AA4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AB4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AC4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AD4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AE4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AF4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AG4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AH4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AI4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AK4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AL4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AM4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AN4" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
     </row>
     <row r="5">
@@ -3572,121 +4148,121 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="C5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="D5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="E5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="F5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="G5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="H5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="I5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="J5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="K5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="L5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="M5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="N5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="O5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="P5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="Q5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="R5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="S5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="T5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="U5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="V5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="W5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="X5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="Y5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="Z5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AA5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AB5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AC5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AD5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AE5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AF5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AG5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AH5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AI5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AK5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AL5" t="n">
-        <v>2756962.499472997</v>
+        <v>2745209.194653912</v>
       </c>
       <c r="AM5" t="n">
-        <v>2760591.945839705</v>
+        <v>2754602.916305473</v>
       </c>
       <c r="AN5" t="n">
-        <v>2763505.587869003</v>
+        <v>2751126.176623978</v>
       </c>
     </row>
   </sheetData>
@@ -4057,34 +4633,31 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00390625</v>
+        <v>0.0078125</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.02146720886230469</v>
+        <v>0.0312042236328125</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03895099554210901</v>
+        <v>0.04864522069692612</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05829205513418856</v>
+        <v>0.06793894520524191</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.07753867595872865</v>
+        <v>0.08713846207435694</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.09669131914252393</v>
+        <v>0.1062442313025095</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1195622684444232</v>
+        <v>0.1290592065097214</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1498781882222011</v>
+        <v>0.1593009314588641</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1724374957130867</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.2247674518263844</v>
+        <v>0.193057075615964</v>
       </c>
     </row>
     <row r="4">
@@ -4094,121 +4667,118 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="C4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="D4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="E4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="F4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="G4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="H4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="I4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="J4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="K4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="L4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="M4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="N4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="O4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="P4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="Q4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="R4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="S4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="T4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="U4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="V4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="W4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="X4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="Y4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="Z4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AA4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AB4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AC4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AD4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AE4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AF4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AG4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AH4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AI4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AK4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AL4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AM4" t="n">
-        <v>2249502.207420732</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
     </row>
     <row r="5">
@@ -4218,121 +4788,118 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="C5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="D5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="E5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="F5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="G5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="H5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="I5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="J5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="K5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="L5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="M5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="N5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="O5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="P5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="Q5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="R5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="S5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="T5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="U5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="V5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="W5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="X5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="Y5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="Z5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AA5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AB5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AC5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AD5" t="n">
-        <v>2249502.207420732</v>
+        <v>2229467.036443321</v>
       </c>
       <c r="AE5" t="n">
-        <v>2260057.594902752</v>
+        <v>2282813.411464555</v>
       </c>
       <c r="AF5" t="n">
-        <v>2259486.855794414</v>
+        <v>2239395.697160068</v>
       </c>
       <c r="AG5" t="n">
-        <v>2260825.039854765</v>
+        <v>2240834.128802436</v>
       </c>
       <c r="AH5" t="n">
-        <v>2250776.076300807</v>
+        <v>2238260.683306525</v>
       </c>
       <c r="AI5" t="n">
-        <v>2250796.722163619</v>
+        <v>2241984.0700471</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2265877.498869967</v>
+        <v>2250372.829273767</v>
       </c>
       <c r="AK5" t="n">
-        <v>2268281.172886237</v>
+        <v>2244080.896489873</v>
       </c>
       <c r="AL5" t="n">
-        <v>2249533.345841811</v>
+        <v>2236318.251312735</v>
       </c>
       <c r="AM5" t="n">
-        <v>2281402.215182977</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2255675.557895965</v>
+        <v>2239096.360981685</v>
       </c>
     </row>
   </sheetData>
@@ -4694,40 +5261,37 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.00390625</v>
+        <v>0.0078125</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.01171112060546875</v>
+        <v>0.023406982421875</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0292377807199955</v>
+        <v>0.03117376565933228</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03699317567952676</v>
+        <v>0.04764594485459384</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.05344120204999747</v>
+        <v>0.05536538636854971</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.06114932470224357</v>
+        <v>0.07270020644798479</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.07845872708392318</v>
+        <v>0.08037071385726607</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.09473465521858465</v>
+        <v>0.09950952873100988</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1118964658157686</v>
+        <v>0.1223639650861016</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1308813463537776</v>
+        <v>0.1450844887281753</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1535519634649859</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.1836023387504157</v>
+        <v>0.1789655820889627</v>
       </c>
     </row>
     <row r="4">
@@ -4737,118 +5301,115 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="C4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="D4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="E4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="F4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="G4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="H4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="I4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="J4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="K4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="L4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="M4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="N4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="O4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="P4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="Q4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="R4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="S4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="T4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="U4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="V4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="W4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="X4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="Y4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="Z4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AA4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AB4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AC4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AD4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AE4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AF4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AG4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AH4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AI4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AK4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AL4" t="n">
-        <v>1904913.076423798</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
     </row>
     <row r="5">
@@ -4858,118 +5419,115 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="C5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="D5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="E5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="F5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="G5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="H5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="I5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="J5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="K5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="L5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="M5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="N5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="O5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="P5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="R5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="S5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="T5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="U5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="V5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="W5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="X5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="Z5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AA5" t="n">
-        <v>1904913.076423798</v>
+        <v>1878287.889793084</v>
       </c>
       <c r="AB5" t="n">
-        <v>1935318.300217295</v>
+        <v>1917052.89778849</v>
       </c>
       <c r="AC5" t="n">
-        <v>1976689.453145833</v>
+        <v>1878525.978179264</v>
       </c>
       <c r="AD5" t="n">
-        <v>1914315.056609233</v>
+        <v>1922976.339365307</v>
       </c>
       <c r="AE5" t="n">
-        <v>1956214.186209982</v>
+        <v>1882503.199845816</v>
       </c>
       <c r="AF5" t="n">
-        <v>1912846.358786767</v>
+        <v>1932972.504915746</v>
       </c>
       <c r="AG5" t="n">
-        <v>1964738.321637385</v>
+        <v>1886212.431129797</v>
       </c>
       <c r="AH5" t="n">
-        <v>1922257.093700976</v>
+        <v>1937451.253694915</v>
       </c>
       <c r="AI5" t="n">
-        <v>1906866.19039443</v>
+        <v>1899778.905619389</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1907465.361383011</v>
+        <v>1886721.014125227</v>
       </c>
       <c r="AK5" t="n">
-        <v>1919851.531671124</v>
+        <v>1892477.025474758</v>
       </c>
       <c r="AL5" t="n">
-        <v>1924141.171581736</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1913845.159114697</v>
+        <v>1886210.561598402</v>
       </c>
     </row>
   </sheetData>
@@ -5325,46 +5883,43 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00390625</v>
+        <v>0.01171112060546875</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01171112060546875</v>
+        <v>0.01950074732303619</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0292377807199955</v>
+        <v>0.03699317567952676</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03699317567952676</v>
+        <v>0.04473342338327768</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05247367108702861</v>
+        <v>0.06114932470224357</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06018368344818675</v>
+        <v>0.06884239242743451</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07557359093471727</v>
+        <v>0.08419847683201484</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0832384862649229</v>
+        <v>0.09184652668195231</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.09949457653188978</v>
+        <v>0.1090210292502445</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1071127511871009</v>
+        <v>0.1318197341569813</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.129922637410614</v>
+        <v>0.1695949320656046</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1525988719570362</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.1901711485980808</v>
+        <v>0.2593700508453169</v>
       </c>
     </row>
     <row r="4">
@@ -5374,118 +5929,115 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="C4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="D4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="E4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="F4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="G4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="H4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="I4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="J4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="K4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="L4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="M4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="N4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="O4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="P4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="Q4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="R4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="S4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="T4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="U4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="V4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="W4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="X4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="Y4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="Z4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AA4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AB4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AC4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AD4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AE4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AF4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AG4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AH4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AI4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AK4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="AL4" t="n">
-        <v>1373448.933208305</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
     </row>
     <row r="5">
@@ -5495,118 +6047,115 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="C5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="D5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="E5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="F5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="G5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="H5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="I5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="J5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="K5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="L5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="M5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="N5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="O5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="P5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="Q5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="R5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="S5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="T5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="U5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="V5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="W5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="X5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="Y5" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
       <c r="Z5" t="n">
-        <v>1373448.933208305</v>
+        <v>1350049.022858443</v>
       </c>
       <c r="AA5" t="n">
-        <v>1408093.657846842</v>
+        <v>1384617.914954885</v>
       </c>
       <c r="AB5" t="n">
-        <v>1441755.954310418</v>
+        <v>1422313.693493135</v>
       </c>
       <c r="AC5" t="n">
-        <v>1381359.944855778</v>
+        <v>1359325.316981497</v>
       </c>
       <c r="AD5" t="n">
-        <v>1417960.088357116</v>
+        <v>1397533.492296301</v>
       </c>
       <c r="AE5" t="n">
-        <v>1379784.04561519</v>
+        <v>1345716.035194856</v>
       </c>
       <c r="AF5" t="n">
-        <v>1416857.284047382</v>
+        <v>1385075.20481868</v>
       </c>
       <c r="AG5" t="n">
-        <v>1379635.796704267</v>
+        <v>1345985.715004092</v>
       </c>
       <c r="AH5" t="n">
-        <v>1419263.591052111</v>
+        <v>1388425.818062113</v>
       </c>
       <c r="AI5" t="n">
-        <v>1377286.93353702</v>
+        <v>1348473.485896003</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1422728.94428045</v>
+        <v>1355851.536269142</v>
       </c>
       <c r="AK5" t="n">
-        <v>1389634.018953554</v>
+        <v>1348164.62026651</v>
       </c>
       <c r="AL5" t="n">
-        <v>1392423.314379347</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1381269.870263135</v>
+        <v>1352207.794429144</v>
       </c>
     </row>
   </sheetData>
